--- a/spreadsheets/Wukong.xlsx
+++ b/spreadsheets/Wukong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DF54B5-1DC2-814D-9070-0926EC07BD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B03AE4-B7F2-AA40-A559-7EB9A893A822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Champion</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Harambe has hit top 10 challenger playing only Wukong.</t>
+  </si>
+  <si>
+    <t>MonkeyKing</t>
   </si>
 </sst>
 </file>
@@ -582,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -600,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1721,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
